--- a/QUEEN/Assemblies Information Table_revise_SI1.xlsx
+++ b/QUEEN/Assemblies Information Table_revise_SI1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leon/Yachie Lab Dropbox/Soh Ishiguro/SOH_ISHIGURO.LAB/Projects/ClonSelect/Github/CloneSelect_analysis/QUEEN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B69DD0-E45A-3B41-9C7B-6AC4C5456404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C6252-359D-3B45-9E94-FE64E8905E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="760" windowWidth="29640" windowHeight="21580" activeTab="3" xr2:uid="{D1E94386-483A-C643-8EAE-E667C3F18F2B}"/>
+    <workbookView xWindow="900" yWindow="760" windowWidth="29640" windowHeight="21580" xr2:uid="{D1E94386-483A-C643-8EAE-E667C3F18F2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Oligos" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="2636">
   <si>
     <t>pLV-CS-192</t>
   </si>
@@ -7298,6 +7298,870 @@
   </si>
   <si>
     <t>pSI-903_v2</t>
+  </si>
+  <si>
+    <t>pSI-922</t>
+  </si>
+  <si>
+    <t>pSI-923</t>
+  </si>
+  <si>
+    <t>pSI-924</t>
+  </si>
+  <si>
+    <t>pSI-925</t>
+  </si>
+  <si>
+    <t>pSI-926</t>
+  </si>
+  <si>
+    <t>pSI-927</t>
+  </si>
+  <si>
+    <t>pSI-928</t>
+  </si>
+  <si>
+    <t>pSI-929</t>
+  </si>
+  <si>
+    <t>pSI-930</t>
+  </si>
+  <si>
+    <t>pSI-931</t>
+  </si>
+  <si>
+    <t>pSI-932</t>
+  </si>
+  <si>
+    <t>pSI-933</t>
+  </si>
+  <si>
+    <t>pSI-934</t>
+  </si>
+  <si>
+    <t>pSI-935</t>
+  </si>
+  <si>
+    <t>pSI-936</t>
+  </si>
+  <si>
+    <t>pSI-937</t>
+  </si>
+  <si>
+    <t>pSI-938</t>
+  </si>
+  <si>
+    <t>pSI-939</t>
+  </si>
+  <si>
+    <t>pSI-940</t>
+  </si>
+  <si>
+    <t>pSI-941</t>
+  </si>
+  <si>
+    <t>pSI-942</t>
+  </si>
+  <si>
+    <t>pSI-943</t>
+  </si>
+  <si>
+    <t>pSI-944</t>
+  </si>
+  <si>
+    <t>pSI-945</t>
+  </si>
+  <si>
+    <t>pSI-946</t>
+  </si>
+  <si>
+    <t>pSI-947</t>
+  </si>
+  <si>
+    <t>pSI-948</t>
+  </si>
+  <si>
+    <t>pSI-949</t>
+  </si>
+  <si>
+    <t>pSI-950</t>
+  </si>
+  <si>
+    <t>pSI-951</t>
+  </si>
+  <si>
+    <t>pSI-952</t>
+  </si>
+  <si>
+    <t>pSI-953</t>
+  </si>
+  <si>
+    <t>pSI-906</t>
+  </si>
+  <si>
+    <t>pSI-907</t>
+  </si>
+  <si>
+    <t>pSI-908</t>
+  </si>
+  <si>
+    <t>pSI-909</t>
+  </si>
+  <si>
+    <t>pSI-910</t>
+  </si>
+  <si>
+    <t>pSI-911</t>
+  </si>
+  <si>
+    <t>pSI-912</t>
+  </si>
+  <si>
+    <t>pSI-913</t>
+  </si>
+  <si>
+    <t>pSI-914</t>
+  </si>
+  <si>
+    <t>pSI-915</t>
+  </si>
+  <si>
+    <t>pSI-916</t>
+  </si>
+  <si>
+    <t>pSI-917</t>
+  </si>
+  <si>
+    <t>pSI-918</t>
+  </si>
+  <si>
+    <t>pSI-919</t>
+  </si>
+  <si>
+    <t>pSI-920</t>
+  </si>
+  <si>
+    <t>pSI-921</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC001 CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC002_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC004_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC013_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC024_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC029_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC033_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC036_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC044_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC144_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC151_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC153_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC183_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC224_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC256_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC401_CRISPRa</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC001_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC017_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC026_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC037_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC046_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC063_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC099_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC169_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC203_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC205_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC240_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC535_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1122_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1174_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2172_gRNA</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2554_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC002_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC006_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC011_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC014_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC039_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC072_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC101_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC153_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC207_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC223_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC304_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC488_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC1591_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC1598_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC1893_gRNA</t>
+  </si>
+  <si>
+    <t>112-10K-BC1950_gRNA</t>
+  </si>
+  <si>
+    <t>caccGCCACACACATCAGCCTATTA</t>
+  </si>
+  <si>
+    <t>caccGCTGCAGATATCGCCATAGAA</t>
+  </si>
+  <si>
+    <t>caccGCGCATGCCTTACTAGACCCC</t>
+  </si>
+  <si>
+    <t>caccGCGAGCAGGGAGAGGGGCCCG</t>
+  </si>
+  <si>
+    <t>caccGCCTTAAACTTCTAGCTCTAT</t>
+  </si>
+  <si>
+    <t>caccGCTTGGTCGGCGTTCTCTGGA</t>
+  </si>
+  <si>
+    <t>caccGCCACATCCCTTGCTGTCTTT</t>
+  </si>
+  <si>
+    <t>caccGCGGGCGCGTCAATCCTCACC</t>
+  </si>
+  <si>
+    <t>caccGCCACGGTGCTCGCGGCGAAG</t>
+  </si>
+  <si>
+    <t>caccGCCCATAATAGGCCTGCATGC</t>
+  </si>
+  <si>
+    <t>caccGCCAACGAACACGGCTCAAGT</t>
+  </si>
+  <si>
+    <t>caccGCTGCCTAATCTAAGACATCT</t>
+  </si>
+  <si>
+    <t>caccGCAAACTGCATCAGATATTCT</t>
+  </si>
+  <si>
+    <t>caccGCTGAGGGGGACGAGTAGGGC</t>
+  </si>
+  <si>
+    <t>caccGCCGACGTCGTACGGGGGCAT</t>
+  </si>
+  <si>
+    <t>caccGCTTCTCCCCGATACCCCGGC</t>
+  </si>
+  <si>
+    <t>AAACGCCGGGGTATCGGGGAGAAGC</t>
+  </si>
+  <si>
+    <t>AAACTAATAGGCTGATGTGTGTGGC</t>
+  </si>
+  <si>
+    <t>AAACTTCTATGGCGATATCTGCAGC</t>
+  </si>
+  <si>
+    <t>AAACGGGGTCTAGTAAGGCATGCGC</t>
+  </si>
+  <si>
+    <t>AAACCGGGCCCCTCTCCCTGCTCGC</t>
+  </si>
+  <si>
+    <t>AAACATAGAGCTAGAAGTTTAAGGC</t>
+  </si>
+  <si>
+    <t>AAACTCCAGAGAACGCCGACCAAGC</t>
+  </si>
+  <si>
+    <t>AAACAAAGACAGCAAGGGATGTGGC</t>
+  </si>
+  <si>
+    <t>AAACGGTGAGGATTGACGCGCCCGC</t>
+  </si>
+  <si>
+    <t>AAACCTTCGCCGCGAGCACCGTGGC</t>
+  </si>
+  <si>
+    <t>AAACGCATGCAGGCCTATTATGGGC</t>
+  </si>
+  <si>
+    <t>AAACACTTGAGCCGTGTTCGTTGGC</t>
+  </si>
+  <si>
+    <t>AAACAGATGTCTTAGATTAGGCAGC</t>
+  </si>
+  <si>
+    <t>AAACAGAATATCTGATGCAGTTTGC</t>
+  </si>
+  <si>
+    <t>AAACGCCCTACTCGTCCCCCTCAGC</t>
+  </si>
+  <si>
+    <t>AAACATGCCCCCGTACGACGTCGGC</t>
+  </si>
+  <si>
+    <t>caccGCACACACTCGGACCCTGAGA</t>
+  </si>
+  <si>
+    <t>caccGCACACTCTGACAGGGTCAGA</t>
+  </si>
+  <si>
+    <t>caccGCACGCCGTGAGACCCTCTCA</t>
+  </si>
+  <si>
+    <t>caccGCACCCACACACACCGACTGA</t>
+  </si>
+  <si>
+    <t>caccGCACCGACAGCCTCACAGTGA</t>
+  </si>
+  <si>
+    <t>caccGCACACCGAGTGACACTGACA</t>
+  </si>
+  <si>
+    <t>caccGCACCCACACTCTCACAGAGA</t>
+  </si>
+  <si>
+    <t>caccGCACCCCGAGTGTCTGAGAGA</t>
+  </si>
+  <si>
+    <t>caccGCACCCCCTCCGAGACTCGCT</t>
+  </si>
+  <si>
+    <t>caccGCACCGCCAGGGACCCAGCCA</t>
+  </si>
+  <si>
+    <t>caccGCACGCCCACCCAGGGTGCGT</t>
+  </si>
+  <si>
+    <t>caccGCACCGCCAGACTCACAGGCT</t>
+  </si>
+  <si>
+    <t>caccGCACTCGCACCCTCGCAGCGA</t>
+  </si>
+  <si>
+    <t>caccGCACCCGCTCAGAGCCTCTGA</t>
+  </si>
+  <si>
+    <t>caccGCACACACAGAGTGGGTCAGT</t>
+  </si>
+  <si>
+    <t>caccGCACCGGGTGACACCGACACA</t>
+  </si>
+  <si>
+    <t>AAACTCTCAGGGTCCGAGTGTGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCTGACCCTGTCAGAGTGTGC</t>
+  </si>
+  <si>
+    <t>AAACTGAGAGGGTCTCACGGCGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCAGTCGGTGTGTGTGGGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCACTGTGAGGCTGTCGGTGC</t>
+  </si>
+  <si>
+    <t>AAACTGTCAGTGTCACTCGGTGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCTCTGTGAGAGTGTGGGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCTCTCAGACACTCGGGGTGC</t>
+  </si>
+  <si>
+    <t>AAACAGCGAGTCTCGGAGGGGGTGC</t>
+  </si>
+  <si>
+    <t>AAACTGGCTGGGTCCCTGGCGGTGC</t>
+  </si>
+  <si>
+    <t>AAACACGCACCCTGGGTGGGCGTGC</t>
+  </si>
+  <si>
+    <t>AAACAGCCTGTGAGTCTGGCGGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCGCTGCGAGGGTGCGAGTGC</t>
+  </si>
+  <si>
+    <t>AAACTCAGAGGCTCTGAGCGGGTGC</t>
+  </si>
+  <si>
+    <t>AAACACTGACCCACTCTGTGTGTGC</t>
+  </si>
+  <si>
+    <t>AAACTGTGTCGGTGTCACCCGGTGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC001-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGCATCATCCTTCGGGCCGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC002-FW</t>
+  </si>
+  <si>
+    <t>CACCgCCTGGATCTTCCGGTCAGAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC004-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGCCAAGTACGAGAGCCTGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC013-FW</t>
+  </si>
+  <si>
+    <t>CACCgCATTACCCCTGACGGGCGGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC024-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGGACGTGACAGAATTGTTC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC029-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGGGGAAGATGTGTGTGGAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC033-FW</t>
+  </si>
+  <si>
+    <t>CACCgCCAGGCTGCATGACGCGTAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC036-FW</t>
+  </si>
+  <si>
+    <t>CACCgCCGATGCACCCCCGACCCAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC044-FW</t>
+  </si>
+  <si>
+    <t>CACCgCTGCGTGGCGAGAAAGTCCC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC144-FW</t>
+  </si>
+  <si>
+    <t>CACCgCCAGGACTCGTGGTGGCGGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC151-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGTTCCCAATGCAGATTCTC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC153-FW</t>
+  </si>
+  <si>
+    <t>CACCgCATTGGGCAGACTGGATTGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC183-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGATACCACTCAAACGCCGC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC224-FW</t>
+  </si>
+  <si>
+    <t>CACCgCGGTCTCTTGTTAGCTCAAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC256-FW</t>
+  </si>
+  <si>
+    <t>CACCgCTCGCCCCGTCATCTGGTCC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC401-FW</t>
+  </si>
+  <si>
+    <t>CACCgCATGGGCACACCAATGAAAC</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC001-RV</t>
+  </si>
+  <si>
+    <t>aaacGCGGCCCGAAGGATGATGCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC002-RV</t>
+  </si>
+  <si>
+    <t>aaacGTCTGACCGGAAGATCCAGGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC004-RV</t>
+  </si>
+  <si>
+    <t>aaacGCAGGCTCTCGTACTTGGCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC013-RV</t>
+  </si>
+  <si>
+    <t>aaacGCCGCCCGTCAGGGGTAATGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC024-RV</t>
+  </si>
+  <si>
+    <t>aaacGAACAATTCTGTCACGTCCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC029-RV</t>
+  </si>
+  <si>
+    <t>aaacGTCCACACACATCTTCCCCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC033-RV</t>
+  </si>
+  <si>
+    <t>aaacGTACGCGTCATGCAGCCTGGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC036-RV</t>
+  </si>
+  <si>
+    <t>aaacGTGGGTCGGGGGTGCATCGGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC044-RV</t>
+  </si>
+  <si>
+    <t>aaacGGGACTTTCTCGCCACGCAGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC144-RV</t>
+  </si>
+  <si>
+    <t>aaacGCCGCCACCACGAGTCCTGGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC151-RV</t>
+  </si>
+  <si>
+    <t>aaacGAGAATCTGCATTGGGAACGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC153-RV</t>
+  </si>
+  <si>
+    <t>aaacGCAATCCAGTCTGCCCAATGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC183-RV</t>
+  </si>
+  <si>
+    <t>aaacGCGGCGTTTGAGTGGTATCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC224-RV</t>
+  </si>
+  <si>
+    <t>aaacGTTGAGCTAACAAGAGACCGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC256-RV</t>
+  </si>
+  <si>
+    <t>aaacGGACCAGATGACGGGGCGAGc</t>
+  </si>
+  <si>
+    <t>CS309-10K-BC401-RV</t>
+  </si>
+  <si>
+    <t>aaacGTTTCATTGGTGTGCCCATGc</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC001_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC017_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC026_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC037_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC046_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC063_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC099_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC169_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC203_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC205_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC240_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC535_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1122_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1174_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2172_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2554_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC002_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC006_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC011_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC014_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC039_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC072_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC101_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC153_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC207_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC223_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC304_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC488_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC1591_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC1598_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC1893_FW</t>
+  </si>
+  <si>
+    <t>112-10K-BC1950_FW</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC001_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC017_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC026_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC037_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC046_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC063_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC099_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC169_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC203_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC205_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC240_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC535_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1122_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC1174_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2172_RV</t>
+  </si>
+  <si>
+    <t>CS310-10K-BC2554_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC002_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC006_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC011_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC014_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC039_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC072_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC101_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC153_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC207_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC223_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC304_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC488_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC1591_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC1598_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC1893_RV</t>
+  </si>
+  <si>
+    <t>112-10K-BC1950_RV</t>
   </si>
 </sst>
 </file>
@@ -7429,21 +8293,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2FF64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -7531,6 +8389,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7540,7 +8411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7665,10 +8536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -7684,6 +8558,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7704,17 +8581,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8036,18 +8911,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9459A0-CF4F-1D4D-9176-F3723AD207A9}">
-  <dimension ref="A1:P472"/>
+  <dimension ref="A1:P560"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F452" sqref="F452"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E566" sqref="E566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.42578125" style="11" customWidth="1"/>
@@ -19819,7 +20694,7 @@
         <v>1604</v>
       </c>
       <c r="H410" s="14">
-        <f t="shared" ref="H410:H464" si="20">LEN(G410)</f>
+        <f t="shared" ref="H410:H473" si="20">LEN(G410)</f>
         <v>25</v>
       </c>
       <c r="I410" s="18"/>
@@ -20677,7 +21552,7 @@
       <c r="D441" t="s">
         <v>2287</v>
       </c>
-      <c r="E441" s="44" t="s">
+      <c r="E441" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F441" t="s">
@@ -20704,7 +21579,7 @@
       <c r="D442" t="s">
         <v>2288</v>
       </c>
-      <c r="E442" s="44" t="s">
+      <c r="E442" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F442" t="s">
@@ -20731,7 +21606,7 @@
       <c r="D443" t="s">
         <v>2289</v>
       </c>
-      <c r="E443" s="44" t="s">
+      <c r="E443" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F443" t="s">
@@ -20758,7 +21633,7 @@
       <c r="D444" t="s">
         <v>2290</v>
       </c>
-      <c r="E444" s="44" t="s">
+      <c r="E444" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F444" t="s">
@@ -20785,7 +21660,7 @@
       <c r="D445" t="s">
         <v>2291</v>
       </c>
-      <c r="E445" s="44" t="s">
+      <c r="E445" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F445" t="s">
@@ -20812,7 +21687,7 @@
       <c r="D446" t="s">
         <v>2292</v>
       </c>
-      <c r="E446" s="44" t="s">
+      <c r="E446" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F446" t="s">
@@ -20839,7 +21714,7 @@
       <c r="D447" t="s">
         <v>2293</v>
       </c>
-      <c r="E447" s="44" t="s">
+      <c r="E447" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F447" t="s">
@@ -20866,7 +21741,7 @@
       <c r="D448" t="s">
         <v>2294</v>
       </c>
-      <c r="E448" s="44" t="s">
+      <c r="E448" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F448" t="s">
@@ -20893,7 +21768,7 @@
       <c r="D449" t="s">
         <v>2295</v>
       </c>
-      <c r="E449" s="44" t="s">
+      <c r="E449" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F449" t="s">
@@ -20920,7 +21795,7 @@
       <c r="D450" t="s">
         <v>2296</v>
       </c>
-      <c r="E450" s="44" t="s">
+      <c r="E450" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F450" t="s">
@@ -20947,7 +21822,7 @@
       <c r="D451" t="s">
         <v>2297</v>
       </c>
-      <c r="E451" s="44" t="s">
+      <c r="E451" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F451" t="s">
@@ -20974,7 +21849,7 @@
       <c r="D452" t="s">
         <v>2298</v>
       </c>
-      <c r="E452" s="44" t="s">
+      <c r="E452" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F452" t="s">
@@ -21001,7 +21876,7 @@
       <c r="D453" t="s">
         <v>2299</v>
       </c>
-      <c r="E453" s="44" t="s">
+      <c r="E453" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F453" t="s">
@@ -21028,7 +21903,7 @@
       <c r="D454" t="s">
         <v>2300</v>
       </c>
-      <c r="E454" s="44" t="s">
+      <c r="E454" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F454" t="s">
@@ -21055,7 +21930,7 @@
       <c r="D455" t="s">
         <v>2301</v>
       </c>
-      <c r="E455" s="44" t="s">
+      <c r="E455" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F455" t="s">
@@ -21082,7 +21957,7 @@
       <c r="D456" t="s">
         <v>2302</v>
       </c>
-      <c r="E456" s="44" t="s">
+      <c r="E456" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F456" t="s">
@@ -21109,7 +21984,7 @@
       <c r="D457" t="s">
         <v>2303</v>
       </c>
-      <c r="E457" s="44" t="s">
+      <c r="E457" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F457" t="s">
@@ -21136,7 +22011,7 @@
       <c r="D458" t="s">
         <v>2304</v>
       </c>
-      <c r="E458" s="44" t="s">
+      <c r="E458" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F458" t="s">
@@ -21163,7 +22038,7 @@
       <c r="D459" t="s">
         <v>2334</v>
       </c>
-      <c r="E459" s="44" t="s">
+      <c r="E459" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F459" t="s">
@@ -21190,7 +22065,7 @@
       <c r="D460" t="s">
         <v>2329</v>
       </c>
-      <c r="E460" s="44" t="s">
+      <c r="E460" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F460" t="s">
@@ -21217,7 +22092,7 @@
       <c r="D461" t="s">
         <v>2330</v>
       </c>
-      <c r="E461" s="44" t="s">
+      <c r="E461" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F461" t="s">
@@ -21244,7 +22119,7 @@
       <c r="D462" t="s">
         <v>2331</v>
       </c>
-      <c r="E462" s="44" t="s">
+      <c r="E462" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F462" t="s">
@@ -21271,7 +22146,7 @@
       <c r="D463" t="s">
         <v>2332</v>
       </c>
-      <c r="E463" s="44" t="s">
+      <c r="E463" s="45" t="s">
         <v>1004</v>
       </c>
       <c r="F463" t="s">
@@ -21298,7 +22173,7 @@
       <c r="D464" t="s">
         <v>2333</v>
       </c>
-      <c r="E464" s="44" t="s">
+      <c r="E464" s="45" t="s">
         <v>1005</v>
       </c>
       <c r="F464" t="s">
@@ -21312,29 +22187,2597 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="5:5">
-      <c r="E465" s="44"/>
-    </row>
-    <row r="466" spans="5:5">
-      <c r="E466" s="44"/>
-    </row>
-    <row r="467" spans="5:5">
-      <c r="E467" s="44"/>
-    </row>
-    <row r="468" spans="5:5">
-      <c r="E468" s="44"/>
-    </row>
-    <row r="469" spans="5:5">
-      <c r="E469" s="44"/>
-    </row>
-    <row r="470" spans="5:5">
-      <c r="E470" s="44"/>
-    </row>
-    <row r="471" spans="5:5">
-      <c r="E471" s="44"/>
-    </row>
-    <row r="472" spans="5:5">
-      <c r="E472" s="44"/>
+    <row r="465" spans="1:8">
+      <c r="A465" s="14">
+        <v>463</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C465" s="58" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D465" s="58" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E465" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F465" s="58" t="s">
+        <v>2508</v>
+      </c>
+      <c r="G465" s="59" t="s">
+        <v>2509</v>
+      </c>
+      <c r="H465" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" s="14">
+        <v>464</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C466" s="58" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D466" s="58" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E466" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F466" s="58" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G466" s="59" t="s">
+        <v>2511</v>
+      </c>
+      <c r="H466" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="A467" s="14">
+        <v>465</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C467" s="58" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D467" s="58" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E467" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F467" s="58" t="s">
+        <v>2512</v>
+      </c>
+      <c r="G467" s="59" t="s">
+        <v>2513</v>
+      </c>
+      <c r="H467" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="14">
+        <v>466</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C468" s="58" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D468" s="58" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E468" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F468" s="58" t="s">
+        <v>2514</v>
+      </c>
+      <c r="G468" s="59" t="s">
+        <v>2515</v>
+      </c>
+      <c r="H468" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="14">
+        <v>467</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C469" s="58" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D469" s="58" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E469" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F469" s="58" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G469" s="59" t="s">
+        <v>2517</v>
+      </c>
+      <c r="H469" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="14">
+        <v>468</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C470" s="58" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D470" s="58" t="s">
+        <v>2518</v>
+      </c>
+      <c r="E470" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F470" s="58" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G470" s="59" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H470" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="14">
+        <v>469</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C471" s="58" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D471" s="58" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E471" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F471" s="58" t="s">
+        <v>2520</v>
+      </c>
+      <c r="G471" s="59" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H471" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="14">
+        <v>470</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C472" s="58" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D472" s="58" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E472" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F472" s="58" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G472" s="59" t="s">
+        <v>2523</v>
+      </c>
+      <c r="H472" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
+      <c r="A473" s="14">
+        <v>471</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C473" s="58" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D473" s="58" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E473" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F473" s="58" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G473" s="59" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H473" s="14">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="14">
+        <v>472</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C474" s="58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D474" s="58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="E474" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F474" s="58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="G474" s="59" t="s">
+        <v>2527</v>
+      </c>
+      <c r="H474" s="14">
+        <f t="shared" ref="H474:H537" si="21">LEN(G474)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="14">
+        <v>473</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C475" s="58" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D475" s="58" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E475" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F475" s="58" t="s">
+        <v>2528</v>
+      </c>
+      <c r="G475" s="59" t="s">
+        <v>2529</v>
+      </c>
+      <c r="H475" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" s="14">
+        <v>474</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C476" s="58" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D476" s="58" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E476" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F476" s="58" t="s">
+        <v>2530</v>
+      </c>
+      <c r="G476" s="59" t="s">
+        <v>2531</v>
+      </c>
+      <c r="H476" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" s="14">
+        <v>475</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C477" s="58" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D477" s="58" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E477" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F477" s="58" t="s">
+        <v>2532</v>
+      </c>
+      <c r="G477" s="59" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H477" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="A478" s="14">
+        <v>476</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C478" s="58" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D478" s="58" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E478" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F478" s="58" t="s">
+        <v>2534</v>
+      </c>
+      <c r="G478" s="59" t="s">
+        <v>2535</v>
+      </c>
+      <c r="H478" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" s="14">
+        <v>477</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C479" s="58" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D479" s="58" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E479" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F479" s="58" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G479" s="59" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H479" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="A480" s="14">
+        <v>478</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C480" s="58" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D480" s="58" t="s">
+        <v>2538</v>
+      </c>
+      <c r="E480" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F480" s="58" t="s">
+        <v>2538</v>
+      </c>
+      <c r="G480" s="59" t="s">
+        <v>2539</v>
+      </c>
+      <c r="H480" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="A481" s="14">
+        <v>479</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C481" s="58" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D481" s="58" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E481" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F481" s="58" t="s">
+        <v>2572</v>
+      </c>
+      <c r="G481" s="59" t="s">
+        <v>2459</v>
+      </c>
+      <c r="H481" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="A482" s="14">
+        <v>480</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C482" s="58" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D482" s="58" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E482" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F482" s="58" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G482" s="59" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H482" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="14">
+        <v>481</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C483" s="58" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D483" s="58" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E483" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F483" s="58" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G483" s="59" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H483" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="14">
+        <v>482</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C484" s="58" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D484" s="58" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E484" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F484" s="58" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G484" s="59" t="s">
+        <v>2446</v>
+      </c>
+      <c r="H484" s="14">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="33">
+        <v>483</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C485" s="60" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D485" s="60" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E485" s="45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F485" s="60" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G485" s="61" t="s">
+        <v>2447</v>
+      </c>
+      <c r="H485" s="33">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="42">
+        <v>484</v>
+      </c>
+      <c r="B486" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C486" s="58" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D486" s="58" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E486" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F486" s="58" t="s">
+        <v>2577</v>
+      </c>
+      <c r="G486" s="59" t="s">
+        <v>2448</v>
+      </c>
+      <c r="H486" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="42">
+        <v>485</v>
+      </c>
+      <c r="B487" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C487" s="58" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D487" s="58" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E487" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F487" s="58" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G487" s="59" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H487" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="42">
+        <v>486</v>
+      </c>
+      <c r="B488" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C488" s="58" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D488" s="58" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E488" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F488" s="58" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G488" s="59" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H488" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="42">
+        <v>487</v>
+      </c>
+      <c r="B489" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C489" s="58" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D489" s="58" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E489" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F489" s="58" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G489" s="59" t="s">
+        <v>2451</v>
+      </c>
+      <c r="H489" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="42">
+        <v>488</v>
+      </c>
+      <c r="B490" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C490" s="58" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D490" s="58" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E490" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F490" s="58" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G490" s="59" t="s">
+        <v>2452</v>
+      </c>
+      <c r="H490" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="42">
+        <v>489</v>
+      </c>
+      <c r="B491" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C491" s="58" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D491" s="58" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E491" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F491" s="58" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G491" s="59" t="s">
+        <v>2453</v>
+      </c>
+      <c r="H491" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="42">
+        <v>490</v>
+      </c>
+      <c r="B492" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C492" s="58" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D492" s="58" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E492" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F492" s="58" t="s">
+        <v>2583</v>
+      </c>
+      <c r="G492" s="59" t="s">
+        <v>2454</v>
+      </c>
+      <c r="H492" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="42">
+        <v>491</v>
+      </c>
+      <c r="B493" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C493" s="58" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D493" s="58" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E493" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F493" s="58" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G493" s="59" t="s">
+        <v>2455</v>
+      </c>
+      <c r="H493" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="42">
+        <v>492</v>
+      </c>
+      <c r="B494" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C494" s="58" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D494" s="58" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E494" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F494" s="58" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G494" s="59" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H494" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="42">
+        <v>493</v>
+      </c>
+      <c r="B495" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C495" s="58" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D495" s="58" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E495" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F495" s="58" t="s">
+        <v>2586</v>
+      </c>
+      <c r="G495" s="59" t="s">
+        <v>2457</v>
+      </c>
+      <c r="H495" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="42">
+        <v>494</v>
+      </c>
+      <c r="B496" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C496" s="58" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D496" s="58" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E496" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F496" s="58" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G496" s="59" t="s">
+        <v>2458</v>
+      </c>
+      <c r="H496" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="42">
+        <v>495</v>
+      </c>
+      <c r="B497" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C497" s="58" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D497" s="58" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E497" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F497" s="58" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G497" s="59" t="s">
+        <v>2476</v>
+      </c>
+      <c r="H497" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="42">
+        <v>496</v>
+      </c>
+      <c r="B498" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C498" s="58" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D498" s="58" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E498" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F498" s="58" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G498" s="59" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H498" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="42">
+        <v>497</v>
+      </c>
+      <c r="B499" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C499" s="58" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D499" s="58" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E499" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F499" s="58" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G499" s="59" t="s">
+        <v>2478</v>
+      </c>
+      <c r="H499" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="42">
+        <v>498</v>
+      </c>
+      <c r="B500" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C500" s="58" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D500" s="58" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E500" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F500" s="58" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G500" s="59" t="s">
+        <v>2479</v>
+      </c>
+      <c r="H500" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="42">
+        <v>499</v>
+      </c>
+      <c r="B501" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C501" s="58" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D501" s="58" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E501" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F501" s="58" t="s">
+        <v>2592</v>
+      </c>
+      <c r="G501" s="59" t="s">
+        <v>2480</v>
+      </c>
+      <c r="H501" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" s="42">
+        <v>500</v>
+      </c>
+      <c r="B502" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C502" s="58" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D502" s="58" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E502" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F502" s="58" t="s">
+        <v>2593</v>
+      </c>
+      <c r="G502" s="59" t="s">
+        <v>2481</v>
+      </c>
+      <c r="H502" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" s="42">
+        <v>501</v>
+      </c>
+      <c r="B503" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C503" s="58" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D503" s="58" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E503" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F503" s="58" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G503" s="59" t="s">
+        <v>2482</v>
+      </c>
+      <c r="H503" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" s="42">
+        <v>502</v>
+      </c>
+      <c r="B504" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C504" s="58" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D504" s="58" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E504" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F504" s="58" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G504" s="59" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H504" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" s="42">
+        <v>503</v>
+      </c>
+      <c r="B505" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C505" s="58" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D505" s="58" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E505" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F505" s="58" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G505" s="59" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H505" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="A506" s="42">
+        <v>504</v>
+      </c>
+      <c r="B506" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C506" s="58" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D506" s="58" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E506" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F506" s="58" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G506" s="59" t="s">
+        <v>2485</v>
+      </c>
+      <c r="H506" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" s="42">
+        <v>505</v>
+      </c>
+      <c r="B507" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C507" s="58" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D507" s="58" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E507" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F507" s="58" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G507" s="59" t="s">
+        <v>2486</v>
+      </c>
+      <c r="H507" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="A508" s="42">
+        <v>506</v>
+      </c>
+      <c r="B508" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C508" s="58" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D508" s="58" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E508" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F508" s="58" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G508" s="59" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H508" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="A509" s="42">
+        <v>507</v>
+      </c>
+      <c r="B509" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C509" s="58" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D509" s="58" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E509" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F509" s="58" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G509" s="59" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H509" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="42">
+        <v>508</v>
+      </c>
+      <c r="B510" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C510" s="58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D510" s="58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E510" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F510" s="58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G510" s="59" t="s">
+        <v>2489</v>
+      </c>
+      <c r="H510" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="42">
+        <v>509</v>
+      </c>
+      <c r="B511" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C511" s="58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D511" s="58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E511" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F511" s="58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="G511" s="59" t="s">
+        <v>2490</v>
+      </c>
+      <c r="H511" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="42">
+        <v>510</v>
+      </c>
+      <c r="B512" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C512" s="58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D512" s="58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E512" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F512" s="58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G512" s="59" t="s">
+        <v>2491</v>
+      </c>
+      <c r="H512" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="42">
+        <v>511</v>
+      </c>
+      <c r="B513" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C513" s="58" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D513" s="58" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E513" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F513" s="58" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G513" s="59" t="s">
+        <v>2541</v>
+      </c>
+      <c r="H513" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="42">
+        <v>512</v>
+      </c>
+      <c r="B514" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C514" s="58" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D514" s="58" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E514" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F514" s="58" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G514" s="59" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H514" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="A515" s="42">
+        <v>513</v>
+      </c>
+      <c r="B515" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C515" s="58" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D515" s="58" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E515" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F515" s="58" t="s">
+        <v>2544</v>
+      </c>
+      <c r="G515" s="59" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H515" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" s="42">
+        <v>514</v>
+      </c>
+      <c r="B516" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C516" s="58" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D516" s="58" t="s">
+        <v>2546</v>
+      </c>
+      <c r="E516" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F516" s="58" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G516" s="59" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H516" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="A517" s="42">
+        <v>515</v>
+      </c>
+      <c r="B517" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C517" s="58" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D517" s="58" t="s">
+        <v>2548</v>
+      </c>
+      <c r="E517" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F517" s="58" t="s">
+        <v>2548</v>
+      </c>
+      <c r="G517" s="59" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H517" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" s="42">
+        <v>516</v>
+      </c>
+      <c r="B518" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C518" s="58" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D518" s="58" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E518" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F518" s="58" t="s">
+        <v>2550</v>
+      </c>
+      <c r="G518" s="59" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H518" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" s="42">
+        <v>517</v>
+      </c>
+      <c r="B519" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C519" s="58" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D519" s="58" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E519" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F519" s="58" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G519" s="59" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H519" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="A520" s="42">
+        <v>518</v>
+      </c>
+      <c r="B520" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C520" s="58" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D520" s="58" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E520" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F520" s="58" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G520" s="59" t="s">
+        <v>2555</v>
+      </c>
+      <c r="H520" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="A521" s="42">
+        <v>519</v>
+      </c>
+      <c r="B521" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C521" s="58" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D521" s="58" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E521" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F521" s="58" t="s">
+        <v>2556</v>
+      </c>
+      <c r="G521" s="59" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H521" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" s="42">
+        <v>520</v>
+      </c>
+      <c r="B522" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C522" s="58" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D522" s="58" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E522" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F522" s="58" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G522" s="59" t="s">
+        <v>2559</v>
+      </c>
+      <c r="H522" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="A523" s="42">
+        <v>521</v>
+      </c>
+      <c r="B523" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C523" s="58" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D523" s="58" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E523" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F523" s="58" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G523" s="59" t="s">
+        <v>2561</v>
+      </c>
+      <c r="H523" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" s="42">
+        <v>522</v>
+      </c>
+      <c r="B524" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C524" s="58" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D524" s="58" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E524" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F524" s="58" t="s">
+        <v>2562</v>
+      </c>
+      <c r="G524" s="59" t="s">
+        <v>2563</v>
+      </c>
+      <c r="H524" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" s="42">
+        <v>523</v>
+      </c>
+      <c r="B525" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C525" s="58" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D525" s="58" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E525" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F525" s="58" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G525" s="59" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H525" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="A526" s="42">
+        <v>524</v>
+      </c>
+      <c r="B526" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C526" s="58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D526" s="58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E526" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F526" s="58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="G526" s="59" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H526" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" s="42">
+        <v>525</v>
+      </c>
+      <c r="B527" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C527" s="58" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D527" s="58" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E527" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F527" s="58" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G527" s="59" t="s">
+        <v>2569</v>
+      </c>
+      <c r="H527" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="42">
+        <v>526</v>
+      </c>
+      <c r="B528" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C528" s="58" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D528" s="58" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E528" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F528" s="58" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G528" s="59" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H528" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" s="42">
+        <v>527</v>
+      </c>
+      <c r="B529" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C529" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D529" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E529" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F529" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G529" s="62" t="s">
+        <v>2460</v>
+      </c>
+      <c r="H529" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="A530" s="42">
+        <v>528</v>
+      </c>
+      <c r="B530" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C530" s="43" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D530" s="43" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E530" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F530" s="43" t="s">
+        <v>2605</v>
+      </c>
+      <c r="G530" s="62" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H530" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" s="42">
+        <v>529</v>
+      </c>
+      <c r="B531" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C531" s="43" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D531" s="43" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E531" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F531" s="43" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G531" s="62" t="s">
+        <v>2462</v>
+      </c>
+      <c r="H531" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="42">
+        <v>530</v>
+      </c>
+      <c r="B532" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C532" s="43" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D532" s="43" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E532" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F532" s="43" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G532" s="62" t="s">
+        <v>2463</v>
+      </c>
+      <c r="H532" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="42">
+        <v>531</v>
+      </c>
+      <c r="B533" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C533" s="43" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D533" s="43" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E533" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F533" s="43" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G533" s="62" t="s">
+        <v>2464</v>
+      </c>
+      <c r="H533" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="42">
+        <v>532</v>
+      </c>
+      <c r="B534" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C534" s="43" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D534" s="43" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E534" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F534" s="43" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G534" s="62" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H534" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="42">
+        <v>533</v>
+      </c>
+      <c r="B535" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C535" s="43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D535" s="43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E535" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F535" s="43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G535" s="62" t="s">
+        <v>2466</v>
+      </c>
+      <c r="H535" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="42">
+        <v>534</v>
+      </c>
+      <c r="B536" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C536" s="43" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D536" s="43" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E536" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F536" s="43" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G536" s="62" t="s">
+        <v>2467</v>
+      </c>
+      <c r="H536" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="42">
+        <v>535</v>
+      </c>
+      <c r="B537" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C537" s="43" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D537" s="43" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E537" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F537" s="43" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G537" s="62" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H537" s="42">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="42">
+        <v>536</v>
+      </c>
+      <c r="B538" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C538" s="43" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D538" s="43" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E538" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F538" s="43" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G538" s="62" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H538" s="42">
+        <f t="shared" ref="H538:H560" si="22">LEN(G538)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="42">
+        <v>537</v>
+      </c>
+      <c r="B539" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C539" s="43" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D539" s="43" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E539" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F539" s="43" t="s">
+        <v>2614</v>
+      </c>
+      <c r="G539" s="62" t="s">
+        <v>2470</v>
+      </c>
+      <c r="H539" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="42">
+        <v>538</v>
+      </c>
+      <c r="B540" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C540" s="43" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D540" s="43" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E540" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F540" s="43" t="s">
+        <v>2615</v>
+      </c>
+      <c r="G540" s="62" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H540" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="42">
+        <v>539</v>
+      </c>
+      <c r="B541" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C541" s="43" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D541" s="43" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E541" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F541" s="43" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G541" s="62" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H541" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="42">
+        <v>540</v>
+      </c>
+      <c r="B542" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C542" s="43" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D542" s="43" t="s">
+        <v>2617</v>
+      </c>
+      <c r="E542" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F542" s="43" t="s">
+        <v>2617</v>
+      </c>
+      <c r="G542" s="62" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H542" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="42">
+        <v>541</v>
+      </c>
+      <c r="B543" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C543" s="43" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D543" s="43" t="s">
+        <v>2618</v>
+      </c>
+      <c r="E543" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F543" s="43" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G543" s="62" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H543" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="42">
+        <v>542</v>
+      </c>
+      <c r="B544" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C544" s="43" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D544" s="43" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E544" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F544" s="43" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G544" s="62" t="s">
+        <v>2475</v>
+      </c>
+      <c r="H544" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="42">
+        <v>543</v>
+      </c>
+      <c r="B545" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C545" s="43" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D545" s="43" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E545" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F545" s="43" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G545" s="62" t="s">
+        <v>2492</v>
+      </c>
+      <c r="H545" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="42">
+        <v>544</v>
+      </c>
+      <c r="B546" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C546" s="43" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D546" s="43" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E546" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F546" s="43" t="s">
+        <v>2621</v>
+      </c>
+      <c r="G546" s="62" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H546" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="42">
+        <v>545</v>
+      </c>
+      <c r="B547" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C547" s="43" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D547" s="43" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E547" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F547" s="43" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G547" s="62" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H547" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="42">
+        <v>546</v>
+      </c>
+      <c r="B548" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C548" s="43" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D548" s="43" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E548" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F548" s="43" t="s">
+        <v>2623</v>
+      </c>
+      <c r="G548" s="62" t="s">
+        <v>2495</v>
+      </c>
+      <c r="H548" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="42">
+        <v>547</v>
+      </c>
+      <c r="B549" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C549" s="43" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D549" s="43" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E549" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F549" s="43" t="s">
+        <v>2624</v>
+      </c>
+      <c r="G549" s="62" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H549" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="42">
+        <v>548</v>
+      </c>
+      <c r="B550" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C550" s="43" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D550" s="43" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E550" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F550" s="43" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G550" s="62" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H550" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="42">
+        <v>549</v>
+      </c>
+      <c r="B551" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C551" s="43" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D551" s="43" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E551" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F551" s="43" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G551" s="62" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H551" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="42">
+        <v>550</v>
+      </c>
+      <c r="B552" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C552" s="43" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D552" s="43" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E552" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F552" s="43" t="s">
+        <v>2627</v>
+      </c>
+      <c r="G552" s="62" t="s">
+        <v>2499</v>
+      </c>
+      <c r="H552" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="42">
+        <v>551</v>
+      </c>
+      <c r="B553" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C553" s="43" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D553" s="43" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E553" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F553" s="43" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G553" s="62" t="s">
+        <v>2500</v>
+      </c>
+      <c r="H553" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="42">
+        <v>552</v>
+      </c>
+      <c r="B554" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C554" s="43" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D554" s="43" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E554" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F554" s="43" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G554" s="62" t="s">
+        <v>2501</v>
+      </c>
+      <c r="H554" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="42">
+        <v>553</v>
+      </c>
+      <c r="B555" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C555" s="43" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D555" s="43" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E555" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F555" s="43" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G555" s="62" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H555" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="42">
+        <v>554</v>
+      </c>
+      <c r="B556" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C556" s="43" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D556" s="43" t="s">
+        <v>2631</v>
+      </c>
+      <c r="E556" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F556" s="43" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G556" s="62" t="s">
+        <v>2503</v>
+      </c>
+      <c r="H556" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="42">
+        <v>555</v>
+      </c>
+      <c r="B557" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C557" s="43" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D557" s="43" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E557" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F557" s="43" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G557" s="62" t="s">
+        <v>2504</v>
+      </c>
+      <c r="H557" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="42">
+        <v>556</v>
+      </c>
+      <c r="B558" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C558" s="43" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D558" s="43" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E558" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F558" s="43" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G558" s="62" t="s">
+        <v>2505</v>
+      </c>
+      <c r="H558" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="42">
+        <v>557</v>
+      </c>
+      <c r="B559" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C559" s="43" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D559" s="43" t="s">
+        <v>2634</v>
+      </c>
+      <c r="E559" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F559" s="43" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G559" s="62" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H559" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="42">
+        <v>558</v>
+      </c>
+      <c r="B560" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C560" s="43" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D560" s="43" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E560" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F560" s="43" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G560" s="62" t="s">
+        <v>2507</v>
+      </c>
+      <c r="H560" s="42">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -21462,10 +24905,10 @@
       <c r="G3" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>2338</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="46" t="s">
         <v>2338</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -21494,10 +24937,10 @@
       <c r="G4" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="46" t="s">
         <v>2336</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="46" t="s">
         <v>2336</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -21526,10 +24969,10 @@
       <c r="G5" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="46" t="s">
         <v>2337</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="46" t="s">
         <v>2337</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -21573,7 +25016,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="E8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:11">
@@ -21593,7 +25036,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="E13" s="46"/>
+      <c r="E13" s="47"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:11">
@@ -23933,11 +27376,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1295C1ED-B3CF-1A45-AB14-F03CF740B56D}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q42" sqref="Q42"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -23945,7 +27388,7 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
@@ -23956,9 +27399,9 @@
     <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -23973,2088 +27416,4968 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>1297</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>1386</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>997</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>1238</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>1191</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="48" t="s">
         <v>1187</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>1195</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>1186</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>1188</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>1241</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="48" t="s">
         <v>1242</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="48" t="s">
         <v>1243</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="48" t="s">
         <v>1276</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="48" t="s">
         <v>1887</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="48" t="s">
         <v>1253</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="48" t="s">
         <v>1255</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="48" t="s">
         <v>1270</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="48" t="s">
         <v>1279</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="48" t="s">
         <v>1295</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="48" t="s">
         <v>1285</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="48" t="s">
         <v>1287</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="48" t="s">
         <v>1290</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="48" t="s">
         <v>1305</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="48" t="s">
         <v>1306</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="48" t="s">
         <v>1307</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="48" t="s">
         <v>1308</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="48" t="s">
         <v>1252</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="48" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1">
-      <c r="A2" s="48">
+      <c r="A2" s="49">
         <v>38</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>2073</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="49" t="s">
         <v>1214</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="51" t="s">
         <v>1012</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
       <c r="AA2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1">
-      <c r="A3" s="48">
+      <c r="A3" s="49">
         <v>39</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>2074</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="49" t="s">
         <v>1215</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="51" t="s">
         <v>1013</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="51" t="s">
         <v>1014</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
       <c r="AA3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AB3" s="51" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1">
-      <c r="A4" s="50">
+      <c r="A4" s="52">
         <v>40</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>2075</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="52" t="s">
         <v>1216</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="51" t="s">
         <v>1372</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>1015</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="51" t="s">
         <v>1016</v>
       </c>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
       <c r="AA4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="49" t="s">
+      <c r="AB4" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="48">
+      <c r="A5" s="49">
         <v>138</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="53" t="s">
         <v>2229</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="53" t="s">
         <v>2229</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="53" t="s">
         <v>2230</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="53" t="s">
         <v>2287</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="53" t="s">
         <v>2288</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="51"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="48">
+      <c r="A6" s="49">
         <v>139</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="53" t="s">
         <v>2231</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="53" t="s">
         <v>2231</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="53" t="s">
         <v>2232</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52" t="s">
+      <c r="L6" s="53"/>
+      <c r="M6" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="53" t="s">
         <v>2289</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="53" t="s">
         <v>2290</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="51"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="53"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="48">
+      <c r="A7" s="49">
         <v>140</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="53" t="s">
         <v>2233</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="53" t="s">
         <v>2233</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="53" t="s">
         <v>2234</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52" t="s">
+      <c r="L7" s="53"/>
+      <c r="M7" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="53" t="s">
         <v>2291</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="53" t="s">
         <v>2292</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="51"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="53"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="48">
+      <c r="A8" s="49">
         <v>141</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="53" t="s">
         <v>2235</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="53" t="s">
         <v>2235</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="53" t="s">
         <v>2236</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52" t="s">
+      <c r="L8" s="53"/>
+      <c r="M8" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="53" t="s">
         <v>2293</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="53" t="s">
         <v>2294</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="51"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="53"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="48">
+      <c r="A9" s="49">
         <v>142</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="53" t="s">
         <v>2237</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="53" t="s">
         <v>2237</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="53" t="s">
         <v>2238</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="53"/>
+      <c r="M9" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="53" t="s">
         <v>2295</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="53" t="s">
         <v>2296</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="51"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="53"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="48">
+      <c r="A10" s="49">
         <v>143</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="53" t="s">
         <v>2239</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="53" t="s">
         <v>2239</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="53" t="s">
         <v>2240</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52" t="s">
+      <c r="L10" s="53"/>
+      <c r="M10" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O10" s="51" t="s">
+      <c r="O10" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="P10" s="53" t="s">
         <v>2298</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="53" t="s">
         <v>2297</v>
       </c>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="51"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="53"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="48">
+      <c r="A11" s="49">
         <v>144</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="53" t="s">
         <v>2241</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="53" t="s">
         <v>2241</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="53" t="s">
         <v>2242</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52" t="s">
+      <c r="L11" s="53"/>
+      <c r="M11" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O11" s="51" t="s">
+      <c r="O11" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="53" t="s">
         <v>2299</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="53" t="s">
         <v>2300</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="51"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="53"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="48">
+      <c r="A12" s="49">
         <v>145</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="53" t="s">
         <v>2243</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="53" t="s">
         <v>2243</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="53" t="s">
         <v>2244</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52" t="s">
+      <c r="L12" s="53"/>
+      <c r="M12" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="N12" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O12" s="51" t="s">
+      <c r="O12" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P12" s="51" t="s">
+      <c r="P12" s="53" t="s">
         <v>2301</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="53" t="s">
         <v>2302</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="51"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="53"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="48">
+      <c r="A13" s="49">
         <v>146</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="53" t="s">
         <v>2245</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="53" t="s">
         <v>2245</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="53" t="s">
         <v>2246</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52" t="s">
+      <c r="L13" s="53"/>
+      <c r="M13" s="54" t="s">
         <v>2285</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="53" t="s">
         <v>2303</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="53" t="s">
         <v>2304</v>
       </c>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="51"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="53"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="48">
+      <c r="A14" s="49">
         <v>147</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="53" t="s">
         <v>2339</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="53" t="s">
         <v>2339</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="53" t="s">
         <v>2247</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
+      <c r="L14" s="53"/>
+      <c r="M14" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="N14" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O14" s="51" t="s">
+      <c r="O14" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P14" s="51" t="s">
+      <c r="P14" s="53" t="s">
         <v>2287</v>
       </c>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="53" t="s">
         <v>2288</v>
       </c>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="51"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="53"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="48">
+      <c r="A15" s="49">
         <v>148</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="48" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="53" t="s">
         <v>2340</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="53" t="s">
         <v>2340</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="53" t="s">
         <v>2248</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K15" s="51" t="s">
+      <c r="K15" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51" t="s">
+      <c r="L15" s="53"/>
+      <c r="M15" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N15" s="51" t="s">
+      <c r="N15" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O15" s="51" t="s">
+      <c r="O15" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="53" t="s">
         <v>2289</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="53" t="s">
         <v>2290</v>
       </c>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="51"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="53"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="48">
+      <c r="A16" s="49">
         <v>149</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="53" t="s">
         <v>2341</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="53" t="s">
         <v>2341</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="53" t="s">
         <v>2249</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51" t="s">
+      <c r="L16" s="53"/>
+      <c r="M16" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O16" s="51" t="s">
+      <c r="O16" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="P16" s="53" t="s">
         <v>2291</v>
       </c>
-      <c r="Q16" s="51" t="s">
+      <c r="Q16" s="53" t="s">
         <v>2292</v>
       </c>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="51"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="53"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="48">
+      <c r="A17" s="49">
         <v>150</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="53" t="s">
         <v>2342</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="53" t="s">
         <v>2342</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="53" t="s">
         <v>2250</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51" t="s">
+      <c r="L17" s="53"/>
+      <c r="M17" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="N17" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="53" t="s">
         <v>2293</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="53" t="s">
         <v>2294</v>
       </c>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="51"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="53"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="48">
+      <c r="A18" s="49">
         <v>151</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="48" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="53" t="s">
         <v>2343</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="53" t="s">
         <v>2343</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="53" t="s">
         <v>2251</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K18" s="51" t="s">
+      <c r="K18" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51" t="s">
+      <c r="L18" s="53"/>
+      <c r="M18" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="O18" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P18" s="51" t="s">
+      <c r="P18" s="53" t="s">
         <v>2295</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="53" t="s">
         <v>2296</v>
       </c>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="51"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="53"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="48">
+      <c r="A19" s="49">
         <v>152</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="53" t="s">
         <v>2344</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="53" t="s">
         <v>2344</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="53" t="s">
         <v>2252</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51" t="s">
+      <c r="L19" s="53"/>
+      <c r="M19" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O19" s="51" t="s">
+      <c r="O19" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P19" s="51" t="s">
+      <c r="P19" s="53" t="s">
         <v>2298</v>
       </c>
-      <c r="Q19" s="51" t="s">
+      <c r="Q19" s="53" t="s">
         <v>2297</v>
       </c>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="51"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="53"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="48">
+      <c r="A20" s="49">
         <v>153</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="53" t="s">
         <v>2345</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="53" t="s">
         <v>2345</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="53" t="s">
         <v>2253</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K20" s="51" t="s">
+      <c r="K20" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51" t="s">
+      <c r="L20" s="53"/>
+      <c r="M20" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N20" s="51" t="s">
+      <c r="N20" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O20" s="51" t="s">
+      <c r="O20" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P20" s="51" t="s">
+      <c r="P20" s="53" t="s">
         <v>2299</v>
       </c>
-      <c r="Q20" s="51" t="s">
+      <c r="Q20" s="53" t="s">
         <v>2300</v>
       </c>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="51"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="48">
+      <c r="A21" s="49">
         <v>154</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="53" t="s">
         <v>2346</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="53" t="s">
         <v>2346</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="53" t="s">
         <v>2254</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51" t="s">
+      <c r="L21" s="53"/>
+      <c r="M21" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O21" s="51" t="s">
+      <c r="O21" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P21" s="51" t="s">
+      <c r="P21" s="53" t="s">
         <v>2301</v>
       </c>
-      <c r="Q21" s="51" t="s">
+      <c r="Q21" s="53" t="s">
         <v>2302</v>
       </c>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="51"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="53"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="48">
+      <c r="A22" s="49">
         <v>155</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="53" t="s">
         <v>2286</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="53" t="s">
         <v>2347</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="53" t="s">
         <v>2347</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="53" t="s">
         <v>2255</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K22" s="51" t="s">
+      <c r="K22" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
+      <c r="L22" s="53"/>
+      <c r="M22" s="53" t="s">
         <v>2280</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O22" s="51" t="s">
+      <c r="O22" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P22" s="51" t="s">
+      <c r="P22" s="53" t="s">
         <v>2303</v>
       </c>
-      <c r="Q22" s="51" t="s">
+      <c r="Q22" s="53" t="s">
         <v>2304</v>
       </c>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="51"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="53"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="48">
+      <c r="A23" s="49">
         <v>156</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="53" t="s">
         <v>2256</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="53" t="s">
         <v>2256</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="53" t="s">
         <v>2257</v>
       </c>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K23" s="51" t="s">
+      <c r="K23" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51" t="s">
+      <c r="L23" s="53"/>
+      <c r="M23" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O23" s="51" t="s">
+      <c r="O23" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P23" s="51" t="s">
+      <c r="P23" s="53" t="s">
         <v>1025</v>
       </c>
-      <c r="Q23" s="51" t="s">
+      <c r="Q23" s="53" t="s">
         <v>1026</v>
       </c>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="51"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="53"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="48">
+      <c r="A24" s="49">
         <v>157</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="53" t="s">
         <v>2258</v>
       </c>
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="53" t="s">
         <v>2258</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="53" t="s">
         <v>2259</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51" t="s">
+      <c r="L24" s="53"/>
+      <c r="M24" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P24" s="51" t="s">
+      <c r="P24" s="53" t="s">
         <v>1027</v>
       </c>
-      <c r="Q24" s="51" t="s">
+      <c r="Q24" s="53" t="s">
         <v>1028</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="51"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="53"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="48">
+      <c r="A25" s="49">
         <v>158</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="53" t="s">
         <v>2260</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="53" t="s">
         <v>2260</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="53" t="s">
         <v>2261</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O25" s="51" t="s">
+      <c r="O25" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P25" s="51" t="s">
+      <c r="P25" s="53" t="s">
         <v>1030</v>
       </c>
-      <c r="Q25" s="51" t="s">
+      <c r="Q25" s="53" t="s">
         <v>1029</v>
       </c>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="51"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="53"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="48">
+      <c r="A26" s="49">
         <v>159</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="53" t="s">
         <v>2262</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="53" t="s">
         <v>2262</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="53" t="s">
         <v>2263</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51" t="s">
+      <c r="L26" s="53"/>
+      <c r="M26" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="N26" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O26" s="51" t="s">
+      <c r="O26" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P26" s="56" t="s">
         <v>1032</v>
       </c>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="56" t="s">
         <v>1031</v>
       </c>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="51"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="53"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="48">
+      <c r="A27" s="49">
         <v>160</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="53" t="s">
         <v>2264</v>
       </c>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="53" t="s">
         <v>2264</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="53" t="s">
         <v>2265</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51" t="s">
+      <c r="L27" s="53"/>
+      <c r="M27" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N27" s="51" t="s">
+      <c r="N27" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O27" s="51" t="s">
+      <c r="O27" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P27" s="51" t="s">
+      <c r="P27" s="53" t="s">
         <v>1034</v>
       </c>
-      <c r="Q27" s="51" t="s">
+      <c r="Q27" s="53" t="s">
         <v>1033</v>
       </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="51"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="53"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="48">
+      <c r="A28" s="49">
         <v>161</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="48" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="53" t="s">
         <v>2266</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="53" t="s">
         <v>2266</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="53" t="s">
         <v>2267</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O28" s="51" t="s">
+      <c r="O28" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P28" s="51" t="s">
+      <c r="P28" s="53" t="s">
         <v>1036</v>
       </c>
-      <c r="Q28" s="51" t="s">
+      <c r="Q28" s="53" t="s">
         <v>1035</v>
       </c>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="51"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="53"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="48">
+      <c r="A29" s="49">
         <v>162</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="48" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="53" t="s">
         <v>2268</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="53" t="s">
         <v>2268</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="53" t="s">
         <v>2269</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51" t="s">
+      <c r="L29" s="53"/>
+      <c r="M29" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="O29" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P29" s="49" t="s">
+      <c r="P29" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="Q29" s="49" t="s">
+      <c r="Q29" s="51" t="s">
         <v>1012</v>
       </c>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="51"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="53"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="48">
+      <c r="A30" s="49">
         <v>163</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="53" t="s">
         <v>2270</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="53" t="s">
         <v>2270</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="53" t="s">
         <v>2271</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51" t="s">
+      <c r="L30" s="53"/>
+      <c r="M30" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="O30" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P30" s="49" t="s">
+      <c r="P30" s="51" t="s">
         <v>1013</v>
       </c>
-      <c r="Q30" s="49" t="s">
+      <c r="Q30" s="51" t="s">
         <v>1014</v>
       </c>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="51"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="53"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="48">
+      <c r="A31" s="49">
         <v>164</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="53" t="s">
         <v>2272</v>
       </c>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="53" t="s">
         <v>2272</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="53" t="s">
         <v>2273</v>
       </c>
-      <c r="J31" s="51" t="s">
+      <c r="J31" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51" t="s">
+      <c r="L31" s="53"/>
+      <c r="M31" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N31" s="51" t="s">
+      <c r="N31" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O31" s="51" t="s">
+      <c r="O31" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="57" t="s">
         <v>1015</v>
       </c>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="57" t="s">
         <v>1016</v>
       </c>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="51"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="53"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="48">
+      <c r="A32" s="49">
         <v>165</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="53" t="s">
         <v>2274</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="53" t="s">
         <v>2274</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="53" t="s">
         <v>2275</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51" t="s">
+      <c r="L32" s="53"/>
+      <c r="M32" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N32" s="51" t="s">
+      <c r="N32" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O32" s="51" t="s">
+      <c r="O32" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P32" s="51" t="s">
+      <c r="P32" s="53" t="s">
         <v>2334</v>
       </c>
-      <c r="Q32" s="51" t="s">
+      <c r="Q32" s="53" t="s">
         <v>2329</v>
       </c>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="51"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="53"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="48">
+      <c r="A33" s="49">
         <v>166</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="53" t="s">
         <v>2276</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="53" t="s">
         <v>2276</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="53" t="s">
         <v>2277</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J33" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51" t="s">
+      <c r="L33" s="53"/>
+      <c r="M33" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N33" s="51" t="s">
+      <c r="N33" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O33" s="51" t="s">
+      <c r="O33" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P33" s="51" t="s">
+      <c r="P33" s="53" t="s">
         <v>2330</v>
       </c>
-      <c r="Q33" s="51" t="s">
+      <c r="Q33" s="53" t="s">
         <v>2331</v>
       </c>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="51"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="53"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="48">
+      <c r="A34" s="49">
         <v>167</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="53" t="s">
         <v>1298</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="49" t="s">
         <v>902</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="53" t="s">
         <v>2278</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="53" t="s">
         <v>2278</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="53" t="s">
         <v>2279</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="53" t="s">
         <v>1372</v>
       </c>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51" t="s">
+      <c r="L34" s="53"/>
+      <c r="M34" s="53" t="s">
         <v>1200</v>
       </c>
-      <c r="N34" s="51" t="s">
+      <c r="N34" s="53" t="s">
         <v>1409</v>
       </c>
-      <c r="O34" s="51" t="s">
+      <c r="O34" s="53" t="s">
         <v>1410</v>
       </c>
-      <c r="P34" s="51" t="s">
+      <c r="P34" s="53" t="s">
         <v>2332</v>
       </c>
-      <c r="Q34" s="51" t="s">
+      <c r="Q34" s="53" t="s">
         <v>2333</v>
       </c>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="51"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="53"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="49">
+        <v>168</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>2348</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>2348</v>
+      </c>
+      <c r="I35" s="58" t="s">
+        <v>2412</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L35" s="53"/>
+      <c r="M35" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N35" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P35" s="58" t="s">
+        <v>2572</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="43"/>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="49">
+        <v>169</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>2349</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>2413</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K36" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L36" s="53"/>
+      <c r="M36" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N36" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P36" s="58" t="s">
+        <v>2573</v>
+      </c>
+      <c r="Q36" s="43" t="s">
+        <v>2605</v>
+      </c>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="43"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="49">
+        <v>170</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>2350</v>
+      </c>
+      <c r="H37" s="58" t="s">
+        <v>2350</v>
+      </c>
+      <c r="I37" s="58" t="s">
+        <v>2414</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K37" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L37" s="53"/>
+      <c r="M37" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N37" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O37" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P37" s="58" t="s">
+        <v>2574</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>2606</v>
+      </c>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="43"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="49">
+        <v>171</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>2351</v>
+      </c>
+      <c r="I38" s="58" t="s">
+        <v>2415</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L38" s="53"/>
+      <c r="M38" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O38" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P38" s="58" t="s">
+        <v>2575</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>2607</v>
+      </c>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="43"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="49">
+        <v>172</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>2352</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>2352</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>2416</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L39" s="53"/>
+      <c r="M39" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O39" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P39" s="60" t="s">
+        <v>2576</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>2608</v>
+      </c>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="43"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="49">
+        <v>173</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>2353</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>2353</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>2417</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L40" s="53"/>
+      <c r="M40" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O40" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P40" s="58" t="s">
+        <v>2577</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>2609</v>
+      </c>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="43"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="49">
+        <v>174</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H41" s="58" t="s">
+        <v>2354</v>
+      </c>
+      <c r="I41" s="58" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K41" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L41" s="53"/>
+      <c r="M41" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N41" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O41" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P41" s="58" t="s">
+        <v>2578</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>2610</v>
+      </c>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="43"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="49">
+        <v>175</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H42" s="58" t="s">
+        <v>2355</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>2419</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K42" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L42" s="53"/>
+      <c r="M42" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N42" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P42" s="58" t="s">
+        <v>2579</v>
+      </c>
+      <c r="Q42" s="43" t="s">
+        <v>2611</v>
+      </c>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="43"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="49">
+        <v>176</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>2356</v>
+      </c>
+      <c r="H43" s="58" t="s">
+        <v>2356</v>
+      </c>
+      <c r="I43" s="58" t="s">
+        <v>2420</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K43" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L43" s="53"/>
+      <c r="M43" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N43" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O43" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P43" s="58" t="s">
+        <v>2580</v>
+      </c>
+      <c r="Q43" s="43" t="s">
+        <v>2612</v>
+      </c>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="43"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="49">
+        <v>177</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>2357</v>
+      </c>
+      <c r="H44" s="58" t="s">
+        <v>2357</v>
+      </c>
+      <c r="I44" s="58" t="s">
+        <v>2421</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L44" s="53"/>
+      <c r="M44" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N44" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O44" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P44" s="58" t="s">
+        <v>2581</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>2613</v>
+      </c>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="43"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="49">
+        <v>178</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>2358</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>2358</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>2422</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K45" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L45" s="53"/>
+      <c r="M45" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N45" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O45" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P45" s="58" t="s">
+        <v>2582</v>
+      </c>
+      <c r="Q45" s="43" t="s">
+        <v>2614</v>
+      </c>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="43"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="49">
+        <v>179</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>2359</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>2423</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K46" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L46" s="53"/>
+      <c r="M46" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N46" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O46" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P46" s="58" t="s">
+        <v>2583</v>
+      </c>
+      <c r="Q46" s="43" t="s">
+        <v>2615</v>
+      </c>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="43"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="49">
+        <v>180</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>2360</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>2360</v>
+      </c>
+      <c r="I47" s="58" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K47" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L47" s="53"/>
+      <c r="M47" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N47" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O47" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P47" s="58" t="s">
+        <v>2584</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>2616</v>
+      </c>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="43"/>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="49">
+        <v>181</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>2361</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>2425</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K48" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L48" s="53"/>
+      <c r="M48" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N48" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O48" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P48" s="58" t="s">
+        <v>2585</v>
+      </c>
+      <c r="Q48" s="43" t="s">
+        <v>2617</v>
+      </c>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="43"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="49">
+        <v>182</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>2362</v>
+      </c>
+      <c r="H49" s="58" t="s">
+        <v>2362</v>
+      </c>
+      <c r="I49" s="58" t="s">
+        <v>2426</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L49" s="53"/>
+      <c r="M49" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N49" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O49" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P49" s="58" t="s">
+        <v>2586</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>2618</v>
+      </c>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="43"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="49">
+        <v>183</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G50" s="58" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H50" s="58" t="s">
+        <v>2363</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>2427</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K50" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L50" s="53"/>
+      <c r="M50" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N50" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O50" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P50" s="58" t="s">
+        <v>2587</v>
+      </c>
+      <c r="Q50" s="43" t="s">
+        <v>2619</v>
+      </c>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="43"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="49">
+        <v>184</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>2364</v>
+      </c>
+      <c r="I51" s="58" t="s">
+        <v>2428</v>
+      </c>
+      <c r="J51" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K51" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L51" s="53"/>
+      <c r="M51" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N51" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O51" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P51" s="58" t="s">
+        <v>2588</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>2620</v>
+      </c>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="43"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="49">
+        <v>185</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H52" s="58" t="s">
+        <v>2365</v>
+      </c>
+      <c r="I52" s="58" t="s">
+        <v>2429</v>
+      </c>
+      <c r="J52" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K52" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L52" s="53"/>
+      <c r="M52" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N52" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O52" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P52" s="58" t="s">
+        <v>2589</v>
+      </c>
+      <c r="Q52" s="43" t="s">
+        <v>2621</v>
+      </c>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="43"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="49">
+        <v>186</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H53" s="58" t="s">
+        <v>2366</v>
+      </c>
+      <c r="I53" s="58" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J53" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K53" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L53" s="53"/>
+      <c r="M53" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N53" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O53" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P53" s="58" t="s">
+        <v>2590</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>2622</v>
+      </c>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="43"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="49">
+        <v>187</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H54" s="58" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>2431</v>
+      </c>
+      <c r="J54" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L54" s="53"/>
+      <c r="M54" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N54" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O54" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P54" s="58" t="s">
+        <v>2591</v>
+      </c>
+      <c r="Q54" s="43" t="s">
+        <v>2623</v>
+      </c>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="43"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="49">
+        <v>188</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>2368</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>2432</v>
+      </c>
+      <c r="J55" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L55" s="53"/>
+      <c r="M55" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N55" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O55" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P55" s="58" t="s">
+        <v>2592</v>
+      </c>
+      <c r="Q55" s="43" t="s">
+        <v>2624</v>
+      </c>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="43"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="49">
+        <v>189</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H56" s="58" t="s">
+        <v>2369</v>
+      </c>
+      <c r="I56" s="58" t="s">
+        <v>2433</v>
+      </c>
+      <c r="J56" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L56" s="53"/>
+      <c r="M56" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O56" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P56" s="58" t="s">
+        <v>2593</v>
+      </c>
+      <c r="Q56" s="43" t="s">
+        <v>2625</v>
+      </c>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="43"/>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="49">
+        <v>190</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H57" s="58" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I57" s="58" t="s">
+        <v>2434</v>
+      </c>
+      <c r="J57" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K57" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L57" s="53"/>
+      <c r="M57" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N57" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O57" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P57" s="58" t="s">
+        <v>2594</v>
+      </c>
+      <c r="Q57" s="43" t="s">
+        <v>2626</v>
+      </c>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="43"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="49">
+        <v>191</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G58" s="58" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H58" s="58" t="s">
+        <v>2371</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>2435</v>
+      </c>
+      <c r="J58" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K58" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L58" s="53"/>
+      <c r="M58" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N58" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O58" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P58" s="58" t="s">
+        <v>2595</v>
+      </c>
+      <c r="Q58" s="43" t="s">
+        <v>2627</v>
+      </c>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="43"/>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="49">
+        <v>192</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H59" s="58" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>2436</v>
+      </c>
+      <c r="J59" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K59" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L59" s="53"/>
+      <c r="M59" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N59" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O59" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P59" s="58" t="s">
+        <v>2596</v>
+      </c>
+      <c r="Q59" s="43" t="s">
+        <v>2628</v>
+      </c>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="43"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="49">
+        <v>193</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H60" s="58" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I60" s="58" t="s">
+        <v>2437</v>
+      </c>
+      <c r="J60" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L60" s="53"/>
+      <c r="M60" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N60" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O60" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P60" s="58" t="s">
+        <v>2597</v>
+      </c>
+      <c r="Q60" s="43" t="s">
+        <v>2629</v>
+      </c>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="43"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="49">
+        <v>194</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H61" s="58" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I61" s="58" t="s">
+        <v>2438</v>
+      </c>
+      <c r="J61" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L61" s="53"/>
+      <c r="M61" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N61" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O61" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P61" s="58" t="s">
+        <v>2598</v>
+      </c>
+      <c r="Q61" s="43" t="s">
+        <v>2630</v>
+      </c>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="43"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="49">
+        <v>195</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H62" s="58" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I62" s="58" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J62" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L62" s="53"/>
+      <c r="M62" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N62" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O62" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P62" s="58" t="s">
+        <v>2599</v>
+      </c>
+      <c r="Q62" s="43" t="s">
+        <v>2631</v>
+      </c>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="43"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="49">
+        <v>196</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H63" s="58" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I63" s="58" t="s">
+        <v>2440</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L63" s="53"/>
+      <c r="M63" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N63" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O63" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P63" s="58" t="s">
+        <v>2600</v>
+      </c>
+      <c r="Q63" s="43" t="s">
+        <v>2632</v>
+      </c>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="43"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="49">
+        <v>197</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H64" s="58" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I64" s="58" t="s">
+        <v>2441</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L64" s="53"/>
+      <c r="M64" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N64" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O64" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P64" s="58" t="s">
+        <v>2601</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>2633</v>
+      </c>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="43"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="49">
+        <v>198</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H65" s="58" t="s">
+        <v>2378</v>
+      </c>
+      <c r="I65" s="58" t="s">
+        <v>2442</v>
+      </c>
+      <c r="J65" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K65" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L65" s="53"/>
+      <c r="M65" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N65" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O65" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P65" s="58" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Q65" s="43" t="s">
+        <v>2634</v>
+      </c>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="43"/>
+      <c r="X65" s="43"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="43"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="49">
+        <v>199</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>2379</v>
+      </c>
+      <c r="H66" s="58" t="s">
+        <v>2379</v>
+      </c>
+      <c r="I66" s="58" t="s">
+        <v>2443</v>
+      </c>
+      <c r="J66" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K66" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L66" s="53"/>
+      <c r="M66" s="49" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N66" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O66" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P66" s="58" t="s">
+        <v>2603</v>
+      </c>
+      <c r="Q66" s="43" t="s">
+        <v>2635</v>
+      </c>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="43"/>
+      <c r="X66" s="43"/>
+      <c r="Y66" s="43"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="43"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="49">
+        <v>200</v>
+      </c>
+      <c r="B67" s="43"/>
+      <c r="C67" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G67" s="58" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H67" s="58" t="s">
+        <v>2380</v>
+      </c>
+      <c r="I67" s="58" t="s">
+        <v>2396</v>
+      </c>
+      <c r="J67" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K67" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N67" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O67" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P67" s="58" t="s">
+        <v>2508</v>
+      </c>
+      <c r="Q67" s="58" t="s">
+        <v>2540</v>
+      </c>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="43"/>
+      <c r="X67" s="43"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="43"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="49">
+        <v>201</v>
+      </c>
+      <c r="B68" s="43"/>
+      <c r="C68" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G68" s="58" t="s">
+        <v>2381</v>
+      </c>
+      <c r="H68" s="58" t="s">
+        <v>2381</v>
+      </c>
+      <c r="I68" s="58" t="s">
+        <v>2397</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K68" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N68" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O68" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P68" s="58" t="s">
+        <v>2510</v>
+      </c>
+      <c r="Q68" s="58" t="s">
+        <v>2542</v>
+      </c>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="43"/>
+      <c r="X68" s="43"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="43"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="49">
+        <v>202</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G69" s="58" t="s">
+        <v>2382</v>
+      </c>
+      <c r="H69" s="58" t="s">
+        <v>2382</v>
+      </c>
+      <c r="I69" s="58" t="s">
+        <v>2398</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N69" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O69" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P69" s="58" t="s">
+        <v>2512</v>
+      </c>
+      <c r="Q69" s="58" t="s">
+        <v>2544</v>
+      </c>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="43"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="49">
+        <v>203</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H70" s="58" t="s">
+        <v>2383</v>
+      </c>
+      <c r="I70" s="58" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J70" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K70" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N70" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O70" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P70" s="58" t="s">
+        <v>2514</v>
+      </c>
+      <c r="Q70" s="58" t="s">
+        <v>2546</v>
+      </c>
+      <c r="R70" s="43"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="43"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="43"/>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="49">
+        <v>204</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>2384</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>2400</v>
+      </c>
+      <c r="J71" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K71" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N71" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O71" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>2516</v>
+      </c>
+      <c r="Q71" s="58" t="s">
+        <v>2548</v>
+      </c>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="43"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="49">
+        <v>205</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G72" s="58" t="s">
+        <v>2385</v>
+      </c>
+      <c r="H72" s="58" t="s">
+        <v>2385</v>
+      </c>
+      <c r="I72" s="58" t="s">
+        <v>2401</v>
+      </c>
+      <c r="J72" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K72" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N72" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O72" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P72" s="58" t="s">
+        <v>2518</v>
+      </c>
+      <c r="Q72" s="58" t="s">
+        <v>2550</v>
+      </c>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="43"/>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="49">
+        <v>206</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G73" s="58" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>2386</v>
+      </c>
+      <c r="I73" s="58" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J73" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K73" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N73" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O73" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P73" s="58" t="s">
+        <v>2520</v>
+      </c>
+      <c r="Q73" s="58" t="s">
+        <v>2552</v>
+      </c>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
+      <c r="V73" s="43"/>
+      <c r="W73" s="43"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="43"/>
+      <c r="Z73" s="43"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="43"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="49">
+        <v>207</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H74" s="58" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I74" s="58" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J74" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K74" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N74" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O74" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P74" s="58" t="s">
+        <v>2522</v>
+      </c>
+      <c r="Q74" s="58" t="s">
+        <v>2554</v>
+      </c>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
+      <c r="V74" s="43"/>
+      <c r="W74" s="43"/>
+      <c r="X74" s="43"/>
+      <c r="Y74" s="43"/>
+      <c r="Z74" s="43"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="43"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="49">
+        <v>208</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H75" s="58" t="s">
+        <v>2388</v>
+      </c>
+      <c r="I75" s="58" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J75" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N75" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O75" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P75" s="58" t="s">
+        <v>2524</v>
+      </c>
+      <c r="Q75" s="58" t="s">
+        <v>2556</v>
+      </c>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
+      <c r="V75" s="43"/>
+      <c r="W75" s="43"/>
+      <c r="X75" s="43"/>
+      <c r="Y75" s="43"/>
+      <c r="Z75" s="43"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="43"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="49">
+        <v>209</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G76" s="58" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H76" s="58" t="s">
+        <v>2389</v>
+      </c>
+      <c r="I76" s="58" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J76" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K76" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N76" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O76" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P76" s="58" t="s">
+        <v>2526</v>
+      </c>
+      <c r="Q76" s="58" t="s">
+        <v>2558</v>
+      </c>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="44"/>
+      <c r="AB76" s="43"/>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="49">
+        <v>210</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H77" s="58" t="s">
+        <v>2390</v>
+      </c>
+      <c r="I77" s="58" t="s">
+        <v>2406</v>
+      </c>
+      <c r="J77" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K77" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N77" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O77" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P77" s="58" t="s">
+        <v>2528</v>
+      </c>
+      <c r="Q77" s="58" t="s">
+        <v>2560</v>
+      </c>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
+      <c r="Z77" s="43"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="43"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="49">
+        <v>211</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G78" s="58" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H78" s="58" t="s">
+        <v>2391</v>
+      </c>
+      <c r="I78" s="58" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J78" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K78" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N78" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O78" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P78" s="58" t="s">
+        <v>2530</v>
+      </c>
+      <c r="Q78" s="58" t="s">
+        <v>2562</v>
+      </c>
+      <c r="R78" s="43"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="43"/>
+      <c r="Y78" s="43"/>
+      <c r="Z78" s="43"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="43"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="49">
+        <v>212</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G79" s="58" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H79" s="58" t="s">
+        <v>2392</v>
+      </c>
+      <c r="I79" s="58" t="s">
+        <v>2408</v>
+      </c>
+      <c r="J79" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K79" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N79" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O79" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P79" s="58" t="s">
+        <v>2532</v>
+      </c>
+      <c r="Q79" s="58" t="s">
+        <v>2564</v>
+      </c>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
+      <c r="V79" s="43"/>
+      <c r="W79" s="43"/>
+      <c r="X79" s="43"/>
+      <c r="Y79" s="43"/>
+      <c r="Z79" s="43"/>
+      <c r="AA79" s="44"/>
+      <c r="AB79" s="43"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="49">
+        <v>213</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G80" s="58" t="s">
+        <v>2393</v>
+      </c>
+      <c r="H80" s="58" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I80" s="58" t="s">
+        <v>2409</v>
+      </c>
+      <c r="J80" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K80" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N80" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O80" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P80" s="58" t="s">
+        <v>2534</v>
+      </c>
+      <c r="Q80" s="58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="43"/>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="49">
+        <v>214</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G81" s="58" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H81" s="58" t="s">
+        <v>2394</v>
+      </c>
+      <c r="I81" s="58" t="s">
+        <v>2410</v>
+      </c>
+      <c r="J81" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K81" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N81" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O81" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P81" s="58" t="s">
+        <v>2536</v>
+      </c>
+      <c r="Q81" s="58" t="s">
+        <v>2568</v>
+      </c>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
+      <c r="V81" s="43"/>
+      <c r="W81" s="43"/>
+      <c r="X81" s="43"/>
+      <c r="Y81" s="43"/>
+      <c r="Z81" s="43"/>
+      <c r="AA81" s="44"/>
+      <c r="AB81" s="43"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="49">
+        <v>215</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>2395</v>
+      </c>
+      <c r="H82" s="58" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I82" s="58" t="s">
+        <v>2411</v>
+      </c>
+      <c r="J82" s="53" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K82" s="53" t="s">
+        <v>993</v>
+      </c>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53" t="s">
+        <v>2280</v>
+      </c>
+      <c r="N82" s="53" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O82" s="53" t="s">
+        <v>1410</v>
+      </c>
+      <c r="P82" s="58" t="s">
+        <v>2538</v>
+      </c>
+      <c r="Q82" s="58" t="s">
+        <v>2570</v>
+      </c>
+      <c r="R82" s="43"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
+      <c r="V82" s="43"/>
+      <c r="W82" s="43"/>
+      <c r="X82" s="43"/>
+      <c r="Y82" s="43"/>
+      <c r="Z82" s="43"/>
+      <c r="AA82" s="44"/>
+      <c r="AB82" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
